--- a/Excel/1_作業工程表.xlsx
+++ b/Excel/1_作業工程表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\kanosawa-mk2\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D024F-6C9D-4EDE-8F76-294F0A7DDF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F84EDE0-A61A-4875-8AA8-BA922E002BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="1230" windowWidth="15075" windowHeight="14115" activeTab="3" xr2:uid="{94EC9C14-CA36-40AC-A6C8-4DC591B493EB}"/>
   </bookViews>
@@ -450,7 +450,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -473,13 +473,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +529,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1958,7 +2006,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1977,10 +2025,10 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2001,7 +2049,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <f>IF(D3&lt;&gt;"",MAX($A$1:A2)+1,"")</f>
         <v>1</v>
       </c>
@@ -2011,7 +2059,7 @@
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1"/>
@@ -2023,7 +2071,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f>IF(D4&lt;&gt;"",MAX($A$1:A3)+1,"")</f>
         <v>2</v>
       </c>
@@ -2033,7 +2081,7 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1"/>
@@ -2045,7 +2093,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f>IF(D5&lt;&gt;"",MAX($A$1:A4)+1,"")</f>
         <v>3</v>
       </c>
@@ -2055,7 +2103,7 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1"/>
@@ -2067,7 +2115,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <f>IF(D6&lt;&gt;"",MAX($A$1:A5)+1,"")</f>
         <v>4</v>
       </c>
@@ -2077,7 +2125,7 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1"/>
@@ -2089,7 +2137,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f>IF(D7&lt;&gt;"",MAX($A$1:A6)+1,"")</f>
         <v>5</v>
       </c>
@@ -2099,7 +2147,7 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1"/>
@@ -2111,7 +2159,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f>IF(D8&lt;&gt;"",MAX($A$1:A7)+1,"")</f>
         <v>6</v>
       </c>
@@ -2121,7 +2169,7 @@
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1"/>
@@ -2133,7 +2181,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f>IF(D9&lt;&gt;"",MAX($A$1:A8)+1,"")</f>
         <v>7</v>
       </c>
@@ -2143,7 +2191,7 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
@@ -2155,7 +2203,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f>IF(D10&lt;&gt;"",MAX($A$1:A9)+1,"")</f>
         <v>8</v>
       </c>
@@ -2165,7 +2213,7 @@
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1"/>
@@ -2177,7 +2225,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f>IF(D11&lt;&gt;"",MAX($A$1:A10)+1,"")</f>
         <v>9</v>
       </c>
@@ -2187,7 +2235,7 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1"/>
@@ -2199,7 +2247,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <f>IF(D12&lt;&gt;"",MAX($A$1:A11)+1,"")</f>
         <v>10</v>
       </c>
@@ -2209,7 +2257,7 @@
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="1"/>
@@ -2221,7 +2269,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f>IF(D13&lt;&gt;"",MAX($A$1:A12)+1,"")</f>
         <v>11</v>
       </c>
@@ -2231,7 +2279,7 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1"/>
@@ -2243,7 +2291,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f>IF(D14&lt;&gt;"",MAX($A$1:A13)+1,"")</f>
         <v>12</v>
       </c>
@@ -2253,7 +2301,7 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1"/>
@@ -2265,7 +2313,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <f>IF(D15&lt;&gt;"",MAX($A$1:A14)+1,"")</f>
         <v>13</v>
       </c>
@@ -2275,7 +2323,7 @@
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1"/>
@@ -2287,7 +2335,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <f>IF(D16&lt;&gt;"",MAX($A$1:A15)+1,"")</f>
         <v>14</v>
       </c>
@@ -2297,7 +2345,7 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="1"/>
@@ -2309,7 +2357,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <f>IF(D17&lt;&gt;"",MAX($A$1:A16)+1,"")</f>
         <v>15</v>
       </c>
@@ -2319,7 +2367,7 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="1"/>
@@ -2331,7 +2379,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <f>IF(D18&lt;&gt;"",MAX($A$1:A17)+1,"")</f>
         <v>16</v>
       </c>
@@ -2341,7 +2389,7 @@
       <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1"/>
@@ -2353,7 +2401,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <f>IF(D19&lt;&gt;"",MAX($A$1:A18)+1,"")</f>
         <v>17</v>
       </c>
@@ -2363,7 +2411,7 @@
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="1"/>
